--- a/data/trans_camb/P16B05-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Clase-trans_camb.xlsx
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,13</t>
+          <t>0,0; 52,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,41</t>
+          <t>0,0; 48,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,2</t>
+          <t>0,0; 28,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,87</t>
+          <t>0,0; 30,94</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 111,98</t>
+          <t>0,0; 110,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,76</t>
+          <t>0,0; 91,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,24</t>
+          <t>0,0; 40,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,66</t>
+          <t>0,0; 44,81</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,53</t>
+          <t>0,0; 61,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 44,38</t>
+          <t>-39,02; 40,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 0,0</t>
+          <t>-26,53; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 16,56</t>
+          <t>-5,29; 17,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 12,96</t>
+          <t>-17,27; 9,44</t>
         </is>
       </c>
     </row>
@@ -871,17 +871,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 175,77</t>
+          <t>0,0; 159,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,49; 82,87</t>
+          <t>-40,17; 85,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 0,0</t>
+          <t>-26,53; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 20,74</t>
+          <t>-5,37; 21,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 11,24</t>
+          <t>-19,25; 10,27</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 0,0</t>
+          <t>-42,06; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 0,0</t>
+          <t>-22,95; 0,0</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 0,0</t>
+          <t>-42,06; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 0,0</t>
+          <t>-22,95; 0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 14,5</t>
+          <t>-6,0; 13,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 10,49</t>
+          <t>-9,51; 10,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 25,05</t>
+          <t>0,45; 26,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 25,9</t>
+          <t>0,93; 28,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 16,54</t>
+          <t>-0,56; 16,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 15,66</t>
+          <t>-1,54; 15,54</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 16,93</t>
+          <t>-6,03; 14,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 11,88</t>
+          <t>-9,57; 11,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,67; 34,94</t>
+          <t>0,46; 35,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,55; 36,33</t>
+          <t>1,06; 40,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 20,59</t>
+          <t>-0,57; 19,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 18,85</t>
+          <t>-1,52; 18,99</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,29</t>
+          <t>0,0; 31,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 22,53</t>
+          <t>-8,94; 23,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 11,0</t>
+          <t>-3,95; 9,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,5</t>
+          <t>0,0; 12,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 9,75</t>
+          <t>-4,01; 8,53</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,46</t>
+          <t>0,0; 45,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 29,0</t>
+          <t>-8,94; 30,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,9</t>
+          <t>0,0; 15,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 12,33</t>
+          <t>-3,95; 10,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,29</t>
+          <t>0,0; 13,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 10,84</t>
+          <t>-3,99; 9,83</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,55; 13,1</t>
+          <t>1,4; 12,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,39; 12,88</t>
+          <t>1,53; 14,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,3; 12,56</t>
+          <t>1,31; 11,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,28; 12,13</t>
+          <t>1,42; 13,31</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2,61; 15,07</t>
+          <t>1,42; 14,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,41; 14,78</t>
+          <t>1,55; 16,34</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,31; 14,37</t>
+          <t>1,32; 13,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,29; 13,81</t>
+          <t>1,44; 15,35</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,05; 13,79</t>
+          <t>1,12; 13,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 9,78</t>
+          <t>-3,54; 10,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,05</t>
+          <t>1,54; 8,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,05; 7,35</t>
+          <t>-0,04; 7,75</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,36</t>
+          <t>2,32; 8,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,07; 6,72</t>
+          <t>-0,15; 6,97</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1,12; 16,31</t>
+          <t>1,18; 15,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 11,17</t>
+          <t>-3,68; 11,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1,75; 10,02</t>
+          <t>1,58; 9,62</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,08; 8,02</t>
+          <t>-0,04; 8,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>2,36; 9,2</t>
+          <t>2,41; 9,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,08; 7,48</t>
+          <t>-0,19; 7,64</t>
         </is>
       </c>
     </row>
